--- a/biology/Microbiologie/Vorticellidae/Vorticellidae.xlsx
+++ b/biology/Microbiologie/Vorticellidae/Vorticellidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Vorticellidae sont une famille de Ciliés de la classe des Oligohymenophorea et de l’ordre des Peritrichida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Vorticella, dérivé du latin vort, « tourbillon », et du suffixe -ella, « petit », littéralement « petit tourbillon », en référence au courant que les mouvements des cils de cet organisme créés dans l'eau.
 </t>
@@ -542,13 +556,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les Vorticellidae ont un corps de forme variable, sessile ou pédonculé. Ils présentent une couronne de cils postérieure temporaire ou permanente. Leur zone adorale est dirigée à droite (dextre), décrivant un peu plus d'un tour de spire. La bouche se trouve au fond d'un vestibule plus ou moins long, dans lequel se termine la zone adorale. À l'entrée du vestibule se trouve une membrane ondulante. Cette famille est extrêmement nombreuse[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les Vorticellidae ont un corps de forme variable, sessile ou pédonculé. Ils présentent une couronne de cils postérieure temporaire ou permanente. Leur zone adorale est dirigée à droite (dextre), décrivant un peu plus d'un tour de spire. La bouche se trouve au fond d'un vestibule plus ou moins long, dans lequel se termine la zone adorale. À l'entrée du vestibule se trouve une membrane ondulante. Cette famille est extrêmement nombreuse.
 Les membres de Vorticella ont un corps en forme de cloche inversée porté sur une tige contractile. Le plus souvent ils sont solitaires, mais de nombreuses espèces sont grégaires. La tige est ovale en coupe transversale et contient un brin ou myonème[note 1] semblable à un muscle contractile sinusoïdal, qui provoque la contraction en spirale. Le corps se révèle encerclé d’un motif de lignes horizontales équidistantes.
 Deux autres Vorticellidae, solitaires portés sur des tiges contractiles, peuvent être confondus avec le genre Vorticella :
 Haplocaulus, organisme solitaire, jamais colonial, qui se contracte en zigzag (et non en spirale) ;
-Pseudovorticella, qui présente des lignes de séparation verticales et se contracte en spirale[2].</t>
+Pseudovorticella, qui présente des lignes de séparation verticales et se contracte en spirale.</t>
         </is>
       </c>
     </row>
@@ -576,9 +592,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Vorticellidae ont une répartition mondiale et dans un très grand nombre de milieux[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Vorticellidae ont une répartition mondiale et dans un très grand nombre de milieux.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (17 octobre 2022)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (17 octobre 2022) :
 Apocarchesium Ji &amp; Kusuoka, 2009
 Carchesium Ehrenberg, 1831
 Epicarchesium Jankowski, 1985
@@ -656,9 +676,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Vorticellidae Ehrenberg, 1838[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Vorticellidae Ehrenberg, 1838.
 </t>
         </is>
       </c>
